--- a/docs/Baernreither_orgNames_2023.xlsx
+++ b/docs/Baernreither_orgNames_2023.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="6220" windowWidth="25700" windowHeight="7940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="244">
   <si>
     <t xml:space="preserve">Arsenal </t>
   </si>
@@ -296,9 +296,6 @@
     <t>&lt;orgName key="Abgeordnetenhaus" ref="https://d-nb.info/gnd/41998-9"&gt;</t>
   </si>
   <si>
-    <t>&lt;orgName key="KommissionfuerNeuereGeschichteÖsterreichs" ref="https://d-nb.info/gnd/2016019-7"&gt;</t>
-  </si>
-  <si>
     <t>MinisteriumdesAeußern</t>
   </si>
   <si>
@@ -750,6 +747,21 @@
   </si>
   <si>
     <t>&lt;orgName key="MinisteriumfuerLandesverteidigung" ref="https://d-nb.info/gnd/1232081655"&gt;</t>
+  </si>
+  <si>
+    <t>Reichsrat/Abgeordnetenhaus/Parteien/Jungtschechen</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/gnd/3030733-8</t>
+  </si>
+  <si>
+    <t>Jungtschechen</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="Jungtschechen" ref="https://d-nb.info/gnd/3030733-8"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="KommissionfuerNeuereGeschichteOesterreichs" ref="https://d-nb.info/gnd/2016019-7"&gt;</t>
   </si>
 </sst>
 </file>
@@ -784,18 +796,12 @@
       <name val="Lato"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -839,10 +845,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -912,8 +918,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D66" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="A1:D66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D67" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:D67"/>
   <sortState ref="A2:D61">
     <sortCondition ref="A30:A61"/>
   </sortState>
@@ -1190,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1226,7 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1267,44 +1273,44 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>229</v>
+      <c r="C5" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
         <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
@@ -1316,7 +1322,7 @@
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -1328,7 +1334,7 @@
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1342,7 +1348,7 @@
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1356,42 +1362,42 @@
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" t="s">
         <v>210</v>
-      </c>
-      <c r="D13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
         <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1410,7 +1416,7 @@
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>70</v>
@@ -1424,7 +1430,7 @@
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -1436,21 +1442,21 @@
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
         <v>127</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
@@ -1464,7 +1470,7 @@
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -1476,7 +1482,7 @@
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -1488,19 +1494,19 @@
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
         <v>129</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>79</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>83</v>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>78</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -1554,7 +1560,7 @@
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>69</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -1580,7 +1586,7 @@
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>32</v>
@@ -1608,16 +1614,16 @@
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
         <v>168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1636,7 +1642,7 @@
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>24</v>
@@ -1650,302 +1656,302 @@
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
         <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
         <v>120</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
         <v>102</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="2" t="s">
+      <c r="D50" t="s">
         <v>216</v>
-      </c>
-      <c r="D49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
         <v>161</v>
-      </c>
-      <c r="D55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1953,141 +1959,155 @@
         <v>143</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
         <v>163</v>
       </c>
-      <c r="D57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C60" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>218</v>
+        <v>29</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="D67" t="s">
         <v>234</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="B68" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C68" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D68" t="s">
         <v>238</v>
-      </c>
-      <c r="D67" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2095,10 +2115,10 @@
     <hyperlink ref="B10" r:id="rId1"/>
     <hyperlink ref="B30" r:id="rId2"/>
     <hyperlink ref="B31" r:id="rId3"/>
-    <hyperlink ref="B61" r:id="rId4"/>
-    <hyperlink ref="B60" r:id="rId5"/>
-    <hyperlink ref="B55" r:id="rId6"/>
-    <hyperlink ref="B53" r:id="rId7"/>
+    <hyperlink ref="B62" r:id="rId4"/>
+    <hyperlink ref="B61" r:id="rId5"/>
+    <hyperlink ref="B56" r:id="rId6"/>
+    <hyperlink ref="B54" r:id="rId7"/>
     <hyperlink ref="B33" r:id="rId8"/>
     <hyperlink ref="B16" r:id="rId9"/>
     <hyperlink ref="B29" r:id="rId10"/>
@@ -2110,38 +2130,39 @@
     <hyperlink ref="B5" r:id="rId16"/>
     <hyperlink ref="B4" r:id="rId17"/>
     <hyperlink ref="B3" r:id="rId18"/>
-    <hyperlink ref="B48" r:id="rId19"/>
+    <hyperlink ref="B49" r:id="rId19"/>
     <hyperlink ref="B6" r:id="rId20"/>
     <hyperlink ref="B19" r:id="rId21"/>
     <hyperlink ref="B2" r:id="rId22"/>
     <hyperlink ref="D16" r:id="rId23" display="https://d-nb.info/gnd/35882-4"/>
-    <hyperlink ref="B57" r:id="rId24"/>
-    <hyperlink ref="B56" r:id="rId25"/>
+    <hyperlink ref="B58" r:id="rId24"/>
+    <hyperlink ref="B57" r:id="rId25"/>
     <hyperlink ref="B25" r:id="rId26"/>
     <hyperlink ref="B23" r:id="rId27"/>
     <hyperlink ref="B24" r:id="rId28"/>
-    <hyperlink ref="B46" r:id="rId29"/>
-    <hyperlink ref="B45" r:id="rId30"/>
-    <hyperlink ref="B44" r:id="rId31"/>
-    <hyperlink ref="B43" r:id="rId32"/>
-    <hyperlink ref="B42" r:id="rId33"/>
+    <hyperlink ref="B47" r:id="rId29"/>
+    <hyperlink ref="B46" r:id="rId30"/>
+    <hyperlink ref="B45" r:id="rId31"/>
+    <hyperlink ref="B44" r:id="rId32"/>
+    <hyperlink ref="B43" r:id="rId33"/>
     <hyperlink ref="B39" r:id="rId34"/>
     <hyperlink ref="B38" r:id="rId35"/>
     <hyperlink ref="B37" r:id="rId36"/>
     <hyperlink ref="B34" r:id="rId37"/>
     <hyperlink ref="B36" r:id="rId38"/>
     <hyperlink ref="B18" r:id="rId39"/>
-    <hyperlink ref="B52" r:id="rId40"/>
+    <hyperlink ref="B53" r:id="rId40"/>
     <hyperlink ref="B7" r:id="rId41"/>
-    <hyperlink ref="B63" r:id="rId42" tooltip="https://d-nb.info/gnd/260143-6"/>
-    <hyperlink ref="B64" r:id="rId43" tooltip="https://d-nb.info/gnd/35881-2"/>
-    <hyperlink ref="B66" r:id="rId44" tooltip="https://d-nb.info/gnd/67240-3"/>
-    <hyperlink ref="B67" r:id="rId45" tooltip="https://d-nb.info/gnd/1232081655"/>
+    <hyperlink ref="B64" r:id="rId42" tooltip="https://d-nb.info/gnd/260143-6"/>
+    <hyperlink ref="B65" r:id="rId43" tooltip="https://d-nb.info/gnd/35881-2"/>
+    <hyperlink ref="B67" r:id="rId44" tooltip="https://d-nb.info/gnd/67240-3"/>
+    <hyperlink ref="B68" r:id="rId45" tooltip="https://d-nb.info/gnd/1232081655"/>
+    <hyperlink ref="B42" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/Baernreither_orgNames_2023.xlsx
+++ b/docs/Baernreither_orgNames_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="251">
   <si>
     <t xml:space="preserve">Arsenal </t>
   </si>
@@ -762,6 +762,27 @@
   </si>
   <si>
     <t>&lt;orgName key="KommissionfuerNeuereGeschichteOesterreichs" ref="https://d-nb.info/gnd/2016019-7"&gt;</t>
+  </si>
+  <si>
+    <t>Verwaltungsgerichtshof</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/gnd/35887-3</t>
+  </si>
+  <si>
+    <t>Verein für Socialpolitik</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/gnd/1012156-0</t>
+  </si>
+  <si>
+    <t>VereinfuerSocialpolitik</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="VereinfuerSocialpolitik" ref="https://d-nb.info/gnd/1012156-0"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="Verwaltungsgerichtshof" ref="https://d-nb.info/gnd/35887-3"&gt;</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2108,6 +2129,34 @@
       </c>
       <c r="D68" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2158,11 +2207,13 @@
     <hyperlink ref="B67" r:id="rId44" tooltip="https://d-nb.info/gnd/67240-3"/>
     <hyperlink ref="B68" r:id="rId45" tooltip="https://d-nb.info/gnd/1232081655"/>
     <hyperlink ref="B42" r:id="rId46"/>
+    <hyperlink ref="B69" r:id="rId47" tooltip="https://d-nb.info/gnd/35887-3"/>
+    <hyperlink ref="B70" r:id="rId48" tooltip="https://d-nb.info/gnd/1012156-0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>